--- a/ResultadoEleicoesDistritos/AVEIRO_ESTARREJA.xlsx
+++ b/ResultadoEleicoesDistritos/AVEIRO_ESTARREJA.xlsx
@@ -597,64 +597,64 @@
         <v>7205</v>
       </c>
       <c r="H2" t="n">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="I2" t="n">
-        <v>690</v>
+        <v>727</v>
       </c>
       <c r="J2" t="n">
-        <v>2990</v>
+        <v>3053</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L2" t="n">
-        <v>800</v>
+        <v>767</v>
       </c>
       <c r="M2" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N2" t="n">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="S2" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="T2" t="n">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="U2" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="V2" t="n">
-        <v>4506</v>
+        <v>4644</v>
       </c>
       <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>4529</v>
+      </c>
+      <c r="Y2" t="n">
         <v>4</v>
       </c>
-      <c r="X2" t="n">
-        <v>4659</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8</v>
-      </c>
       <c r="Z2" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
